--- a/company_data/Acre Data.xlsx
+++ b/company_data/Acre Data.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="main_variables"/>
     <sheet r:id="rId2" sheetId="2" name="net_cash_flow"/>
-    <sheet r:id="rId3" sheetId="3" name="Copy of P&amp;amp;amp;amp;amp;amp;amp;L_Ratio Rev 1.1_Model"/>
+    <sheet r:id="rId3" sheetId="3" name="Copy of P&amp;amp;amp;amp;amp;amp;amp;amp;L_Ratio Rev 1.1_Model"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t xml:space="preserve">Appendix 2. Profit and Loss (Standardized Version)
 </t>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Potential Existing Dentist Leaving</t>
+  </si>
+  <si>
+    <t>Current Number of Dentist</t>
+  </si>
+  <si>
+    <t>Projected Number of Dentist</t>
   </si>
 </sst>
 </file>
@@ -977,7 +983,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
@@ -1300,10 +1306,10 @@
     <col min="1" max="1" style="82" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="82" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="82" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="86" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="90" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>1862463.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="93" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>-1053087.22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="93" t="s">
         <v>62</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="93" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>6932.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="93" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>-4334.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="93" t="s">
         <v>62</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>-8063.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="93" t="s">
         <v>62</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>-10216.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="93" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>-311702.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="93" t="s">
         <v>62</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="93" t="s">
         <v>62</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="93" t="s">
         <v>62</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>-1547.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="93" t="s">
         <v>62</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="93" t="s">
         <v>72</v>
       </c>
@@ -1570,16 +1576,32 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="89">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="89">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/company_data/Acre Data.xlsx
+++ b/company_data/Acre Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="183">
   <si>
     <t>Category</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Operating Expense</t>
-  </si>
-  <si>
-    <t>Advertising &amp; Promotion Expense</t>
   </si>
   <si>
     <t>Operational Expense</t>
@@ -571,6 +568,9 @@
       </rPr>
       <t>Operating Expenses</t>
     </r>
+  </si>
+  <si>
+    <t>Advertising &amp; Promotion Expense</t>
   </si>
   <si>
     <t>Wages &amp; Sallary**)</t>
@@ -969,10 +969,10 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1545,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>-4335.0</v>
+        <v>4335.0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4">
-        <v>-8064.0</v>
+        <v>-10216.0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -1576,8 +1576,8 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
-        <v>-10216.0</v>
+      <c r="D8" s="7">
+        <v>-319766.0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -1587,13 +1587,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>-311702.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1619,13 +1619,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
-        <v>0.0</v>
+        <v>-1547.0</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1635,123 +1635,107 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4">
-        <v>-1547.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.0</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="8">
+        <v>80827.0</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="7">
-        <v>80827.0</v>
+        <v>0.13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8">
-        <v>0.13</v>
+      <c r="D15" s="7">
+        <v>0.15</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>24</v>
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8">
-        <v>0.15</v>
+      <c r="D16" s="7">
+        <v>1045.0</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>24</v>
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8">
-        <v>1045.0</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="D17" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19">
-      <c r="C19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20">
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="F21" s="6"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1769,44 +1753,44 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>2023.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8">
-        <v>2023.0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="11">
         <v>166221.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="11">
         <v>152671.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>33</v>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="11">
         <v>146945.0</v>
@@ -1814,99 +1798,99 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>34</v>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="11">
         <v>151137.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="11">
         <v>146328.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="11">
         <v>155003.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="11">
         <v>185874.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="11">
         <v>174903.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="11">
         <v>166979.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="11">
         <v>125592.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="11">
         <v>123521.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="11">
         <v>167290.0</v>
@@ -1928,1416 +1912,1416 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="B2" s="12">
         <v>44928.0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7">
+        <v>18729.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="8">
-        <v>18729.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="B3" s="12">
         <v>45245.0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7">
+        <v>14926.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="8">
-        <v>14926.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="B4" s="12">
         <v>45143.0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19151.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="8">
-        <v>19151.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="B5" s="12">
         <v>45051.0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14266.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14266.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="B6" s="12">
         <v>45034.0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24560.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="8">
-        <v>24560.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="B7" s="12">
         <v>44993.0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15235.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="8">
-        <v>15235.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="B8" s="12">
         <v>45046.0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20705.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20705.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="B9" s="12">
         <v>45257.0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18170.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="8">
-        <v>18170.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="B10" s="12">
         <v>45012.0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20690.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20690.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="B11" s="12">
         <v>44934.0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7">
+        <v>23760.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="8">
-        <v>23760.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="B12" s="12">
         <v>45150.0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7">
         <v>24571.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>65</v>
+      <c r="A13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="12">
         <v>45259.0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23437.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="8">
-        <v>23437.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B14" s="12">
         <v>45019.0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7">
         <v>22136.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>71</v>
+      <c r="A15" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="12">
         <v>45062.0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7">
         <v>15582.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>72</v>
+      <c r="A16" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="12">
         <v>44962.0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22499.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="8">
-        <v>22499.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="B17" s="12">
         <v>45057.0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
         <v>14896.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
+      <c r="A18" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="12">
         <v>45022.0</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19413.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" s="8">
-        <v>19413.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="B19" s="12">
         <v>45289.0</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17171.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="8">
-        <v>17171.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="B20" s="12">
         <v>45152.0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7">
         <v>26144.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>78</v>
+      <c r="A21" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B21" s="12">
         <v>45249.0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25915.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" s="8">
-        <v>25915.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B22" s="12">
         <v>45009.0</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7">
+        <v>14869.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="8">
-        <v>14869.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="B23" s="12">
         <v>45162.0</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="7">
         <v>16921.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>83</v>
+      <c r="A24" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="12">
         <v>45056.0</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16315.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="8">
-        <v>16315.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="B25" s="12">
         <v>45238.0</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
         <v>18958.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>86</v>
+      <c r="A26" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B26" s="12">
         <v>44977.0</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="7">
         <v>20785.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>86</v>
+      <c r="A27" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="12">
         <v>45269.0</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="7">
+        <v>21898.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" s="8">
-        <v>21898.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="B28" s="12">
         <v>45189.0</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7">
         <v>14209.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>89</v>
+      <c r="A29" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B29" s="12">
         <v>45150.0</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="7">
         <v>20136.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>90</v>
+      <c r="A30" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B30" s="12">
         <v>44989.0</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7">
         <v>22262.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>91</v>
+      <c r="A31" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="12">
         <v>45110.0</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="7">
         <v>17416.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>92</v>
+      <c r="A32" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B32" s="12">
         <v>45253.0</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="7">
+        <v>20454.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" s="8">
-        <v>20454.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="B33" s="12">
         <v>45012.0</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="7">
         <v>18550.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>95</v>
+      <c r="A34" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B34" s="12">
         <v>45237.0</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="7">
+        <v>20288.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" s="8">
-        <v>20288.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="B35" s="12">
         <v>45009.0</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="7">
         <v>16102.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>98</v>
+      <c r="A36" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B36" s="12">
         <v>45019.0</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7">
         <v>19427.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>99</v>
+      <c r="A37" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B37" s="12">
         <v>45120.0</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="C37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7">
         <v>20487.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>85</v>
+      <c r="A38" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B38" s="12">
         <v>45236.0</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="8">
+      <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7">
         <v>18880.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>70</v>
+      <c r="A39" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="12">
         <v>45286.0</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="7">
         <v>21415.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>100</v>
+      <c r="A40" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B40" s="12">
         <v>45052.0</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7">
+        <v>16927.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D40" s="8">
-        <v>16927.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="B41" s="12">
         <v>45122.0</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="7">
+        <v>18535.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D41" s="8">
-        <v>18535.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="B42" s="12">
         <v>44963.0</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="C42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="7">
         <v>17712.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>105</v>
+      <c r="A43" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B43" s="12">
         <v>45151.0</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="7">
         <v>19886.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>106</v>
+      <c r="A44" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B44" s="12">
         <v>44961.0</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="C44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="7">
         <v>12136.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>107</v>
+      <c r="A45" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B45" s="12">
         <v>45280.0</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="7">
         <v>23041.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>108</v>
+      <c r="A46" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B46" s="12">
         <v>45263.0</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="C46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="7">
         <v>17916.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>109</v>
+      <c r="A47" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B47" s="12">
         <v>45000.0</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7">
         <v>14159.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>110</v>
+      <c r="A48" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B48" s="12">
         <v>45154.0</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="C48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="7">
         <v>17445.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>108</v>
+      <c r="A49" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B49" s="12">
         <v>45101.0</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="C49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="7">
         <v>24534.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>111</v>
+      <c r="A50" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="12">
         <v>45182.0</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="7">
         <v>17953.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>97</v>
+      <c r="A51" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B51" s="12">
         <v>44955.0</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="7">
         <v>17827.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>112</v>
+      <c r="A52" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B52" s="12">
         <v>44929.0</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="C52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="7">
         <v>18265.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>113</v>
+      <c r="A53" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B53" s="12">
         <v>44943.0</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="7">
         <v>20833.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>100</v>
+      <c r="A54" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B54" s="12">
         <v>44964.0</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="8">
+      <c r="C54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="7">
         <v>23635.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>114</v>
+      <c r="A55" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B55" s="12">
         <v>44942.0</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="7">
         <v>22284.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>112</v>
+      <c r="A56" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B56" s="12">
         <v>45199.0</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="8">
+      <c r="C56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="7">
         <v>21699.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>115</v>
+      <c r="A57" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B57" s="12">
         <v>44954.0</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="7">
         <v>18018.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>95</v>
+      <c r="A58" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B58" s="12">
         <v>45138.0</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="C58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="7">
         <v>18705.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>116</v>
+      <c r="A59" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B59" s="12">
         <v>44932.0</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="7">
         <v>16202.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>117</v>
+      <c r="A60" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B60" s="12">
         <v>45140.0</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="8">
+      <c r="C60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="7">
         <v>15892.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>107</v>
+      <c r="A61" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B61" s="12">
         <v>45164.0</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="C61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="7">
         <v>14041.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>118</v>
+      <c r="A62" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B62" s="12">
         <v>45213.0</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="C62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="7">
         <v>15866.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>119</v>
+      <c r="A63" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B63" s="12">
         <v>45278.0</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C63" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="7">
         <v>23705.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>120</v>
+      <c r="A64" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B64" s="12">
         <v>45176.0</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="C64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="7">
         <v>19654.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>121</v>
+      <c r="A65" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B65" s="12">
         <v>45230.0</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="7">
         <v>18986.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>121</v>
+      <c r="A66" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B66" s="12">
         <v>45265.0</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="C66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="7">
         <v>16180.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>121</v>
+      <c r="A67" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B67" s="12">
         <v>44998.0</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="7">
         <v>18277.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>104</v>
+      <c r="A68" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B68" s="12">
         <v>44999.0</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="C68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="7">
         <v>15634.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>122</v>
+      <c r="A69" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B69" s="12">
         <v>45010.0</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="C69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="7">
         <v>13178.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>123</v>
+      <c r="A70" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B70" s="12">
         <v>45256.0</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="8">
+      <c r="C70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="7">
         <v>20426.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>71</v>
+      <c r="A71" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B71" s="12">
         <v>45095.0</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="7">
         <v>20449.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>78</v>
+      <c r="A72" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B72" s="12">
         <v>45139.0</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="8">
+      <c r="C72" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="7">
         <v>23355.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>75</v>
+      <c r="A73" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B73" s="12">
         <v>44966.0</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="8">
+      <c r="C73" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="7">
         <v>14339.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
-        <v>124</v>
+      <c r="A74" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="B74" s="12">
         <v>45249.0</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="7">
+        <v>21441.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D74" s="8">
-        <v>21441.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="B75" s="12">
         <v>45237.0</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="7">
         <v>19904.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="s">
-        <v>100</v>
+      <c r="A76" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B76" s="12">
         <v>45009.0</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="8">
+      <c r="C76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="7">
         <v>23402.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>125</v>
+      <c r="A77" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B77" s="12">
         <v>45228.0</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="7">
         <v>13325.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>53</v>
+      <c r="A78" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B78" s="12">
         <v>44986.0</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="8">
+      <c r="C78" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="7">
         <v>16745.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="8" t="s">
-        <v>57</v>
+      <c r="A79" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B79" s="12">
         <v>44932.0</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="7">
         <v>14652.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="s">
-        <v>114</v>
+      <c r="A80" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B80" s="12">
         <v>45223.0</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="7">
+        <v>17912.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D80" s="8">
-        <v>17912.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="B81" s="12">
         <v>45016.0</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="7">
         <v>19495.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
-        <v>128</v>
+      <c r="A82" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B82" s="12">
         <v>45272.0</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="8">
+      <c r="C82" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="7">
         <v>21516.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
-        <v>107</v>
+      <c r="A83" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B83" s="12">
         <v>45189.0</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C83" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="7">
         <v>20387.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>71</v>
+      <c r="A84" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B84" s="12">
         <v>44933.0</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="8">
+      <c r="C84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="7">
         <v>19968.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
-        <v>108</v>
+      <c r="A85" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B85" s="12">
         <v>45291.0</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C85" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="7">
         <v>20243.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
-        <v>130</v>
+      <c r="A86" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B86" s="12">
         <v>45179.0</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="8">
+      <c r="C86" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="7">
         <v>15348.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
-        <v>53</v>
+      <c r="A87" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B87" s="12">
         <v>45193.0</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="8">
+      <c r="C87" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="7">
         <v>18541.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
-        <v>111</v>
+      <c r="A88" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B88" s="12">
         <v>45266.0</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="8">
+      <c r="C88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="7">
         <v>22678.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
-        <v>114</v>
+      <c r="A89" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B89" s="12">
         <v>44964.0</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="8">
+      <c r="C89" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="7">
         <v>13526.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="s">
-        <v>61</v>
+      <c r="A90" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B90" s="12">
         <v>44953.0</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="8">
+      <c r="C90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="7">
         <v>12823.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
-        <v>131</v>
+      <c r="A91" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B91" s="12">
         <v>45266.0</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="8">
+      <c r="C91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="7">
         <v>20863.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>132</v>
+      <c r="A92" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B92" s="12">
         <v>45012.0</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="8">
+      <c r="C92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="7">
         <v>14778.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
-        <v>133</v>
+      <c r="A93" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B93" s="12">
         <v>45094.0</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="8">
+      <c r="C93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="7">
         <v>14118.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
-        <v>110</v>
+      <c r="A94" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B94" s="12">
         <v>44948.0</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="8">
+      <c r="C94" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="7">
         <v>17818.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="s">
-        <v>134</v>
+      <c r="A95" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B95" s="12">
         <v>45160.0</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="8">
+      <c r="C95" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="7">
         <v>17848.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="s">
-        <v>127</v>
+      <c r="A96" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B96" s="12">
         <v>45095.0</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" s="8">
+      <c r="C96" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="7">
         <v>20929.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="8" t="s">
-        <v>82</v>
+      <c r="A97" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B97" s="12">
         <v>45235.0</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="8">
+      <c r="C97" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="7">
         <v>11841.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="s">
-        <v>135</v>
+      <c r="A98" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B98" s="12">
         <v>44962.0</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D98" s="8">
+      <c r="C98" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="7">
         <v>13872.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
-        <v>114</v>
+      <c r="A99" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B99" s="12">
         <v>45100.0</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="8">
+      <c r="C99" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="7">
         <v>13828.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="s">
-        <v>71</v>
+      <c r="A100" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B100" s="12">
         <v>44933.0</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D100" s="8">
+      <c r="C100" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="7">
         <v>16249.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="s">
-        <v>92</v>
+      <c r="A101" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B101" s="12">
         <v>45071.0</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" s="8">
+      <c r="C101" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="7">
         <v>19389.0</v>
       </c>
     </row>
@@ -3363,18 +3347,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="17">
         <v>981834.17</v>
@@ -3385,7 +3369,7 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="17">
         <v>5753.0</v>
@@ -3396,7 +3380,7 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17">
         <v>506966.12</v>
@@ -3407,7 +3391,7 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="17">
         <v>4085.0</v>
@@ -3418,7 +3402,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="17">
         <v>319589.65</v>
@@ -3443,15 +3427,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>2020.0</v>
       </c>
       <c r="B2" s="19">
@@ -3459,7 +3443,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2021.0</v>
       </c>
       <c r="B3" s="4">
@@ -3467,7 +3451,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2022.0</v>
       </c>
       <c r="B4" s="4">
@@ -3475,7 +3459,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2023.0</v>
       </c>
       <c r="B5" s="4">
@@ -3498,41 +3482,41 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -3605,7 +3589,7 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="1">
@@ -3624,42 +3608,42 @@
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="36.75" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="25">
         <v>2023.0</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="25">
         <v>2022.0</v>
       </c>
       <c r="E7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -3668,7 +3652,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="33">
         <v>1862463.95</v>
@@ -3683,7 +3667,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="37">
         <f>SUM(B9)</f>
@@ -3696,7 +3680,7 @@
       </c>
       <c r="E10" s="39"/>
       <c r="G10" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="41">
         <f>B10/D10</f>
@@ -3712,7 +3696,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
@@ -3721,7 +3705,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="47">
         <v>1053087.22</v>
@@ -3734,7 +3718,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="50">
         <f>SUM(B13)</f>
@@ -3776,7 +3760,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="46"/>
@@ -3811,7 +3795,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="62">
         <f>SUM(B18:B19)</f>
@@ -3833,20 +3817,20 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="59" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="B23" s="47">
         <v>8063.71</v>
@@ -3868,7 +3852,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="47">
         <f>8450+1527.27+197.78+41.04</f>
@@ -4146,7 +4130,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="47">
         <v>3682.57</v>
@@ -4302,7 +4286,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="1">
       <c r="A45" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="33">
         <v>1547.3</v>

--- a/company_data/Acre Data.xlsx
+++ b/company_data/Acre Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="main_variables"/>
@@ -13,7 +13,7 @@
     <sheet r:id="rId4" sheetId="4" name="dentist_contribution"/>
     <sheet r:id="rId5" sheetId="5" name="yearly_net_sales"/>
     <sheet r:id="rId6" sheetId="6" name="net_cash_flow"/>
-    <sheet r:id="rId7" sheetId="7" name="Copy of P&amp;amp;amp;amp;amp;amp;L_Ratio Rev 1.1_Model"/>
+    <sheet r:id="rId7" sheetId="7" name="Copy of P&amp;amp;amp;amp;amp;amp;amp;L_Ratio Rev 1.1_Model"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -1663,7 +1663,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1798,7 +1798,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="92">
-        <v>-319766</v>
+        <v>-308607</v>
       </c>
       <c r="E8" s="107"/>
       <c r="F8" s="108"/>
@@ -1926,7 +1926,7 @@
         <v>181</v>
       </c>
       <c r="D16" s="92">
-        <v>1045</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="107"/>
       <c r="F16" s="108"/>
@@ -2191,7 +2191,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
